--- a/biology/Médecine/1236_en_santé_et_médecine/1236_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1236_en_santé_et_médecine/1236_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1236_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1236_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1236 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1236_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1236_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Siegfried III, archevêque de Mayence, transfère l’hôpital épiscopal à la fraternité du  Saint-Esprit, précisant dans l'acte de fondation qu'il est institué « de sorte que […] les  frères  et  sœurs  fournissent aux  infirmes nourriture  et  boisson  et  les  autres nécessités[1] ».
-Aymon, fils de Thomas Ier, comte de Savoie, « fonde la maison-Dieu ou hôpital Notre-Dame de Villeneuve », dans le Chablais[2],[3].
-Fondation de l'hôpital de Vilvorde en Brabant, établissement qui perdurera jusqu'à nos jours pour former, par fusion en 1974 avec la clinique Saint-Joseph, l'Algemeen Ziekenhuis  Jan Portaels (« hôpital général Jan Portaels[4],[5] »).
-À Whittlesford, dans la paroisse de Duxford près de Cambridge en Angleterre, un hôpital placé sous l'invocation de saint Jean-Baptiste (Hospital of St. John the Baptist), et certainement fondé par William de Colville peu après 1200, est mentionné pour la première fois[6].
-Vers 1235-1236 : fondation de l'hôpital Beaulieu à Issendolus en Quercy, sur la route de Brive à Figeac, par les époux Guibert et Aygline de Thémines, établissement où « peuvent être reçus les pauvres et même les pèlerins », qui sera dirigé à partir de 1259 par les hospitalières de Saint-Jean et perdurera jusqu'à la Révolution[7],[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Siegfried III, archevêque de Mayence, transfère l’hôpital épiscopal à la fraternité du  Saint-Esprit, précisant dans l'acte de fondation qu'il est institué « de sorte que […] les  frères  et  sœurs  fournissent aux  infirmes nourriture  et  boisson  et  les  autres nécessités ».
+Aymon, fils de Thomas Ier, comte de Savoie, « fonde la maison-Dieu ou hôpital Notre-Dame de Villeneuve », dans le Chablais,.
+Fondation de l'hôpital de Vilvorde en Brabant, établissement qui perdurera jusqu'à nos jours pour former, par fusion en 1974 avec la clinique Saint-Joseph, l'Algemeen Ziekenhuis  Jan Portaels (« hôpital général Jan Portaels, »).
+À Whittlesford, dans la paroisse de Duxford près de Cambridge en Angleterre, un hôpital placé sous l'invocation de saint Jean-Baptiste (Hospital of St. John the Baptist), et certainement fondé par William de Colville peu après 1200, est mentionné pour la première fois.
+Vers 1235-1236 : fondation de l'hôpital Beaulieu à Issendolus en Quercy, sur la route de Brive à Figeac, par les époux Guibert et Aygline de Thémines, établissement où « peuvent être reçus les pauvres et même les pèlerins », qui sera dirigé à partir de 1259 par les hospitalières de Saint-Jean et perdurera jusqu'à la Révolution,.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1236_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1236_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Octobre : Qotb al-Din Chirazi (mort en 1311), médecin, astronome, mathématicien, philosophe, théologien soufi et poète persan[9].
-Vers 1236 : Jacob ibn Tibbon (mort en 1305 ou 1306), astronome, médecin et traducteur juif provençal[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Octobre : Qotb al-Din Chirazi (mort en 1311), médecin, astronome, mathématicien, philosophe, théologien soufi et poète persan.
+Vers 1236 : Jacob ibn Tibbon (mort en 1305 ou 1306), astronome, médecin et traducteur juif provençal.</t>
         </is>
       </c>
     </row>
